--- a/2_Data_Extraction/2_1_CHN_Journal_Code/2_1_5_Extract_Data/2_5_5_3_Article_Replaced/Chin_Subj_articles_replaced_WCX.xlsx
+++ b/2_Data_Extraction/2_1_CHN_Journal_Code/2_1_5_Extract_Data/2_5_5_3_Article_Replaced/Chin_Subj_articles_replaced_WCX.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10500"/>
+    <workbookView windowWidth="23040" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$A$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$A$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="303">
   <si>
     <t>Coder</t>
   </si>
@@ -493,35 +493,6 @@
   <si>
     <t>初中生 676 人（43.4%），高中生 880
 人（56.6%）</t>
-  </si>
-  <si>
-    <t>年轻男同性恋者自我概念清晰性与生命意义感的关系及作用机制</t>
-  </si>
-  <si>
-    <t>李 放</t>
-  </si>
-  <si>
-    <t>本研究首次探究了同性恋者自我概念清晰性与
-生命意义感间的中介变量。</t>
-  </si>
-  <si>
-    <t>本研究选取 16~35
-岁、自我定义为男同性恋的个体</t>
-  </si>
-  <si>
-    <t>其中教育程度为高中及以下的 65 人，
-大专及本科的 298 人，研究生及以上的 42 人。</t>
-  </si>
-  <si>
-    <t>2;5</t>
-  </si>
-  <si>
-    <t>其中教育程度为高中及以下的 65 人，
-大专及本科的 298 人，研究生及以上的 42 人。城市
-254 人，农村 151 人。</t>
-  </si>
-  <si>
-    <t>网络抽样法</t>
   </si>
   <si>
     <t>自我关注与社交焦虑：负面评价恐惧的中介与关系型自我构念的调节</t>
@@ -717,6 +688,9 @@
   </si>
   <si>
     <t>初中 8 例， 高中 26 例， 大专及以上 8 例</t>
+  </si>
+  <si>
+    <t>2;5</t>
   </si>
   <si>
     <t>常规治疗组</t>
@@ -2252,14 +2226,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL63"/>
+  <dimension ref="A1:AL62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="$A29:$XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
@@ -4598,7 +4572,7 @@
         <v>38</v>
       </c>
       <c r="B29">
-        <v>20182190</v>
+        <v>20182194</v>
       </c>
       <c r="C29" t="s">
         <v>140</v>
@@ -4613,10 +4587,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29" t="s">
         <v>142</v>
@@ -4625,48 +4602,39 @@
         <v>2</v>
       </c>
       <c r="N29" s="2">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29">
-        <v>405</v>
+        <v>192</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="R29">
         <v>1</v>
       </c>
       <c r="S29" s="2">
-        <v>21.63</v>
-      </c>
-      <c r="T29" s="2">
-        <v>3.18</v>
-      </c>
-      <c r="U29"/>
+        <v>21</v>
+      </c>
+      <c r="T29"/>
+      <c r="U29" t="s">
+        <v>143</v>
+      </c>
       <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA29" s="2">
         <v>5</v>
       </c>
-      <c r="W29" t="s">
-        <v>143</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>145</v>
       </c>
-      <c r="AB29" t="s">
-        <v>146</v>
-      </c>
       <c r="AC29">
         <v>0</v>
       </c>
@@ -4676,8 +4644,8 @@
       <c r="AG29" s="2">
         <v>0</v>
       </c>
-      <c r="AH29" t="s">
-        <v>147</v>
+      <c r="AH29" s="2">
+        <v>2</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -4688,13 +4656,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>20182194</v>
+        <v>20182197</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
         <v>63</v>
@@ -4702,66 +4670,61 @@
       <c r="F30">
         <v>1</v>
       </c>
+      <c r="G30" t="s">
+        <v>148</v>
+      </c>
       <c r="H30" s="2">
         <v>14</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
       <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>149</v>
+      </c>
+      <c r="N30" s="2">
+        <v>251</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>0.49</v>
+      </c>
+      <c r="Q30">
+        <v>0.51</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30" s="2">
+        <v>5.03</v>
+      </c>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30">
         <v>3</v>
       </c>
-      <c r="L30" t="s">
+      <c r="W30" t="s">
         <v>150</v>
       </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30" s="2">
-        <v>446</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <v>192</v>
-      </c>
-      <c r="Q30">
-        <v>254</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="S30" s="2">
-        <v>21</v>
-      </c>
-      <c r="T30"/>
-      <c r="U30" t="s">
+      <c r="AA30" t="s">
         <v>151</v>
       </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30" t="s">
+      <c r="AB30" t="s">
         <v>152</v>
       </c>
-      <c r="AA30" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>153</v>
-      </c>
       <c r="AC30">
         <v>0</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
-      <c r="AG30" s="2">
-        <v>0</v>
+      <c r="AG30" t="s">
+        <v>122</v>
       </c>
       <c r="AH30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -4775,10 +4738,10 @@
         <v>20182197</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
         <v>63</v>
@@ -4787,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H31" s="2">
         <v>14</v>
@@ -4796,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N31" s="2">
         <v>251</v>
@@ -4805,30 +4768,39 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>0.51</v>
+        <v>251</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
       <c r="S31" s="2">
-        <v>5.03</v>
+        <v>33.96</v>
       </c>
       <c r="T31"/>
       <c r="U31"/>
       <c r="V31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W31" t="s">
-        <v>158</v>
+        <v>150</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
       </c>
       <c r="AA31" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AB31" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -4844,6 +4816,9 @@
       </c>
       <c r="AI31">
         <v>0</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:37">
@@ -4851,13 +4826,13 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>20182197</v>
+        <v>20182242</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
         <v>63</v>
@@ -4866,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H32" s="2">
         <v>14</v>
@@ -4875,25 +4850,28 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
       </c>
       <c r="N32" s="2">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>0.686</v>
       </c>
       <c r="Q32">
-        <v>251</v>
+        <v>0.314</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
       <c r="S32" s="2">
-        <v>33.96</v>
+        <v>33.1</v>
       </c>
       <c r="T32"/>
       <c r="U32"/>
@@ -4901,22 +4879,22 @@
         <v>4</v>
       </c>
       <c r="W32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="X32">
         <v>1</v>
       </c>
       <c r="Y32" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="s">
         <v>162</v>
       </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>159</v>
-      </c>
       <c r="AB32" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -4924,17 +4902,14 @@
       <c r="AE32">
         <v>0</v>
       </c>
-      <c r="AG32" t="s">
-        <v>122</v>
+      <c r="AG32" s="2">
+        <v>0</v>
       </c>
       <c r="AH32" s="2">
         <v>0</v>
       </c>
       <c r="AI32">
         <v>0</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:37">
@@ -4945,10 +4920,10 @@
         <v>20182242</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
         <v>63</v>
@@ -4957,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H33" s="2">
         <v>14</v>
@@ -4966,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M33">
         <v>2</v>
@@ -4978,16 +4953,16 @@
         <v>1</v>
       </c>
       <c r="P33">
-        <v>0.686</v>
+        <v>0.5</v>
       </c>
       <c r="Q33">
-        <v>0.314</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
       <c r="S33" s="2">
-        <v>33.1</v>
+        <v>28.1</v>
       </c>
       <c r="T33"/>
       <c r="U33"/>
@@ -4995,22 +4970,22 @@
         <v>4</v>
       </c>
       <c r="W33" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="X33">
         <v>1</v>
       </c>
       <c r="Y33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z33">
         <v>1</v>
       </c>
       <c r="AA33" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AB33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -5033,13 +5008,13 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>20182242</v>
+        <v>20182259</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
         <v>63</v>
@@ -5047,9 +5022,6 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
-        <v>172</v>
-      </c>
       <c r="H34" s="2">
         <v>14</v>
       </c>
@@ -5057,51 +5029,35 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M34">
         <v>2</v>
       </c>
       <c r="N34" s="2">
-        <v>194</v>
+        <v>473</v>
       </c>
       <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34">
-        <v>0.5</v>
-      </c>
-      <c r="Q34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>1</v>
       </c>
       <c r="S34" s="2">
-        <v>28.1</v>
-      </c>
-      <c r="T34"/>
+        <v>14.63</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1.57</v>
+      </c>
       <c r="U34"/>
       <c r="V34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W34" t="s">
-        <v>168</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z34">
-        <v>1</v>
-      </c>
-      <c r="AA34" t="s">
         <v>170</v>
       </c>
-      <c r="AB34" t="s">
-        <v>174</v>
+      <c r="AA34" s="2">
+        <v>0</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -5109,11 +5065,11 @@
       <c r="AE34">
         <v>0</v>
       </c>
-      <c r="AG34" s="2">
-        <v>0</v>
+      <c r="AG34" t="s">
+        <v>171</v>
       </c>
       <c r="AH34" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -5124,13 +5080,13 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>20182259</v>
+        <v>20182272</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
         <v>63</v>
@@ -5139,38 +5095,47 @@
         <v>1</v>
       </c>
       <c r="H35" s="2">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" s="2">
-        <v>473</v>
+        <v>88</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>47</v>
+      </c>
+      <c r="Q35">
+        <v>41</v>
       </c>
       <c r="R35">
         <v>1</v>
       </c>
       <c r="S35" s="2">
-        <v>14.63</v>
+        <v>18.32</v>
       </c>
       <c r="T35" s="2">
-        <v>1.57</v>
+        <v>1.27</v>
       </c>
       <c r="U35"/>
       <c r="V35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AA35" s="2">
         <v>0</v>
@@ -5181,14 +5146,14 @@
       <c r="AE35">
         <v>0</v>
       </c>
-      <c r="AG35" t="s">
-        <v>179</v>
+      <c r="AG35" s="2">
+        <v>0</v>
       </c>
       <c r="AH35" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:37">
@@ -5199,16 +5164,16 @@
         <v>20182272</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s">
         <v>63</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -5220,38 +5185,34 @@
         <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
       <c r="P36">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="Q36">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="R36">
-        <v>1</v>
-      </c>
-      <c r="S36" s="2">
-        <v>18.32</v>
-      </c>
-      <c r="T36" s="2">
-        <v>1.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S36"/>
+      <c r="T36"/>
       <c r="U36"/>
       <c r="V36">
         <v>1</v>
       </c>
       <c r="W36" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA36" s="2">
         <v>0</v>
@@ -5277,58 +5238,59 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>20182272</v>
+        <v>20182282</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
         <v>63</v>
       </c>
       <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>180</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M37">
         <v>2</v>
       </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37" t="s">
-        <v>184</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
       <c r="N37" s="2">
-        <v>40</v>
+        <v>858</v>
       </c>
       <c r="O37">
         <v>1</v>
       </c>
       <c r="P37">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="Q37">
-        <v>22</v>
+        <v>412</v>
       </c>
       <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37"/>
-      <c r="T37"/>
+        <v>1</v>
+      </c>
+      <c r="S37" s="2">
+        <v>13.76</v>
+      </c>
+      <c r="T37" s="2">
+        <v>1.16</v>
+      </c>
       <c r="U37"/>
       <c r="V37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AA37" s="2">
         <v>0</v>
@@ -5339,14 +5301,14 @@
       <c r="AE37">
         <v>0</v>
       </c>
-      <c r="AG37" s="2">
-        <v>0</v>
+      <c r="AG37" t="s">
+        <v>45</v>
       </c>
       <c r="AH37" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:37">
@@ -5354,62 +5316,68 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>20182282</v>
+        <v>20183032</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="H38" t="s">
-        <v>188</v>
+      <c r="H38" s="2">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M38">
         <v>2</v>
       </c>
       <c r="N38" s="2">
-        <v>858</v>
+        <v>490</v>
       </c>
       <c r="O38">
         <v>1</v>
       </c>
       <c r="P38">
-        <v>446</v>
+        <v>136</v>
       </c>
       <c r="Q38">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="S38" s="2">
-        <v>13.76</v>
+        <v>20</v>
       </c>
       <c r="T38" s="2">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="U38"/>
       <c r="V38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AA38" s="2">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>187</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -5418,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="AG38" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="AH38" s="2">
         <v>2</v>
@@ -5432,13 +5400,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>20183032</v>
+        <v>20183036</v>
       </c>
       <c r="C39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E39" t="s">
         <v>81</v>
@@ -5446,51 +5414,62 @@
       <c r="F39">
         <v>1</v>
       </c>
+      <c r="G39" t="s">
+        <v>191</v>
+      </c>
       <c r="H39" s="2">
         <v>14</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39" t="s">
+        <v>192</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2">
+        <v>42</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>15</v>
+      </c>
+      <c r="Q39">
+        <v>27</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39" s="2">
+        <v>32.3</v>
+      </c>
+      <c r="T39" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="U39" t="s">
         <v>193</v>
       </c>
-      <c r="M39">
-        <v>2</v>
-      </c>
-      <c r="N39" s="2">
-        <v>490</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <v>136</v>
-      </c>
-      <c r="Q39">
-        <v>354</v>
-      </c>
-      <c r="R39">
-        <v>1</v>
-      </c>
-      <c r="S39" s="2">
-        <v>20</v>
-      </c>
-      <c r="T39" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="U39"/>
       <c r="V39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W39" t="s">
         <v>194</v>
       </c>
-      <c r="AA39" s="2">
-        <v>5</v>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>196</v>
       </c>
       <c r="AB39" t="s">
         <v>195</v>
@@ -5502,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="AG39" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="AH39" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI39">
         <v>0</v>
@@ -5519,10 +5498,10 @@
         <v>20183036</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E40" t="s">
         <v>81</v>
@@ -5531,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H40" s="2">
         <v>14</v>
@@ -5540,55 +5519,55 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O40">
         <v>1</v>
       </c>
       <c r="P40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q40">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R40">
         <v>1</v>
       </c>
       <c r="S40" s="2">
-        <v>32.3</v>
+        <v>31.6</v>
       </c>
       <c r="T40" s="2">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="U40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="V40">
         <v>5</v>
       </c>
       <c r="W40" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="X40">
         <v>1</v>
       </c>
       <c r="Y40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
-      <c r="AA40" t="s">
-        <v>145</v>
+      <c r="AA40" s="2">
+        <v>2</v>
       </c>
       <c r="AB40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -5604,6 +5583,9 @@
       </c>
       <c r="AI40">
         <v>0</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:37">
@@ -5611,13 +5593,13 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>20183036</v>
+        <v>20183105</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D41" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E41" t="s">
         <v>81</v>
@@ -5625,65 +5607,51 @@
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41" t="s">
+        <v>203</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>160</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>70</v>
+      </c>
+      <c r="Q41">
+        <v>90</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41" s="2">
+        <v>21.31</v>
+      </c>
+      <c r="T41" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="U41"/>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41" t="s">
         <v>204</v>
       </c>
-      <c r="H41" s="2">
-        <v>14</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
-        <v>200</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41" s="2">
-        <v>39</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <v>14</v>
-      </c>
-      <c r="Q41">
-        <v>25</v>
-      </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-      <c r="S41" s="2">
-        <v>31.6</v>
-      </c>
-      <c r="T41" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="U41" t="s">
-        <v>205</v>
-      </c>
-      <c r="V41">
-        <v>5</v>
-      </c>
-      <c r="W41" t="s">
-        <v>202</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
       <c r="AA41" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -5691,17 +5659,14 @@
       <c r="AE41">
         <v>0</v>
       </c>
-      <c r="AG41" t="s">
-        <v>60</v>
+      <c r="AG41" s="2">
+        <v>0</v>
       </c>
       <c r="AH41" s="2">
         <v>0</v>
       </c>
       <c r="AI41">
         <v>0</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:37">
@@ -5712,16 +5677,16 @@
         <v>20183105</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E42" t="s">
         <v>81</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -5733,38 +5698,38 @@
         <v>3</v>
       </c>
       <c r="L42" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42" s="2">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="O42">
         <v>1</v>
       </c>
       <c r="P42">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="Q42">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="R42">
         <v>1</v>
       </c>
       <c r="S42" s="2">
-        <v>21.31</v>
+        <v>20.68</v>
       </c>
       <c r="T42" s="2">
-        <v>2.04</v>
+        <v>1.48</v>
       </c>
       <c r="U42"/>
       <c r="V42">
         <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AA42" s="2">
         <v>0</v>
@@ -5790,65 +5755,77 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>20183105</v>
+        <v>20183164</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E43" t="s">
         <v>81</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>208</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O43">
         <v>1</v>
       </c>
       <c r="P43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q43">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R43">
         <v>1</v>
       </c>
       <c r="S43" s="2">
-        <v>20.68</v>
+        <v>56.01</v>
       </c>
       <c r="T43" s="2">
-        <v>1.48</v>
+        <v>14.54</v>
       </c>
       <c r="U43"/>
       <c r="V43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W43" t="s">
-        <v>212</v>
+        <v>210</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
       </c>
       <c r="AA43" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>211</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -5874,10 +5851,10 @@
         <v>20183164</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E44" t="s">
         <v>81</v>
@@ -5886,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H44" s="2">
         <v>14</v>
@@ -5895,44 +5872,44 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O44">
         <v>1</v>
       </c>
       <c r="P44">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q44">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R44">
         <v>1</v>
       </c>
       <c r="S44" s="2">
-        <v>56.01</v>
+        <v>57.48</v>
       </c>
       <c r="T44" s="2">
-        <v>14.54</v>
+        <v>11.93</v>
       </c>
       <c r="U44"/>
       <c r="V44">
         <v>5</v>
       </c>
       <c r="W44" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="X44">
         <v>1</v>
       </c>
       <c r="Y44" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -5941,7 +5918,7 @@
         <v>2</v>
       </c>
       <c r="AB44" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -5964,13 +5941,13 @@
         <v>38</v>
       </c>
       <c r="B45">
-        <v>20183164</v>
+        <v>20183169</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E45" t="s">
         <v>81</v>
@@ -5979,62 +5956,59 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H45" s="2">
         <v>14</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
       <c r="N45" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="O45">
         <v>1</v>
       </c>
       <c r="P45">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="Q45">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <v>1</v>
       </c>
       <c r="S45" s="2">
-        <v>57.48</v>
+        <v>17.3</v>
       </c>
       <c r="T45" s="2">
-        <v>11.93</v>
+        <v>1.3</v>
       </c>
       <c r="U45"/>
       <c r="V45">
         <v>5</v>
       </c>
       <c r="W45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X45">
         <v>1</v>
       </c>
       <c r="Y45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
       <c r="AA45" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -6060,10 +6034,10 @@
         <v>20183169</v>
       </c>
       <c r="C46" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E46" t="s">
         <v>81</v>
@@ -6072,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H46" s="2">
         <v>14</v>
@@ -6081,19 +6055,19 @@
         <v>3</v>
       </c>
       <c r="L46" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46" s="2">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="O46">
         <v>1</v>
       </c>
       <c r="P46">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -6102,26 +6076,17 @@
         <v>1</v>
       </c>
       <c r="S46" s="2">
-        <v>17.3</v>
+        <v>16.7</v>
       </c>
       <c r="T46" s="2">
-        <v>1.3</v>
+        <v>0.86</v>
       </c>
       <c r="U46"/>
       <c r="V46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W46" t="s">
-        <v>225</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="AA46" s="2">
         <v>0</v>
@@ -6147,13 +6112,13 @@
         <v>38</v>
       </c>
       <c r="B47">
-        <v>20183169</v>
+        <v>20183269</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E47" t="s">
         <v>81</v>
@@ -6161,48 +6126,45 @@
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47" t="s">
-        <v>227</v>
-      </c>
-      <c r="H47" s="2">
-        <v>14</v>
+      <c r="H47" t="s">
+        <v>224</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47" s="2">
-        <v>116</v>
+        <v>1037</v>
       </c>
       <c r="O47">
         <v>1</v>
       </c>
       <c r="P47">
-        <v>116</v>
+        <v>606</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="R47">
         <v>1</v>
       </c>
       <c r="S47" s="2">
-        <v>16.7</v>
+        <v>13.47</v>
       </c>
       <c r="T47" s="2">
-        <v>0.86</v>
+        <v>1.16</v>
       </c>
       <c r="U47"/>
       <c r="V47">
         <v>2</v>
       </c>
       <c r="W47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AA47" s="2">
         <v>0</v>
@@ -6213,11 +6175,11 @@
       <c r="AE47">
         <v>0</v>
       </c>
-      <c r="AG47" s="2">
-        <v>0</v>
+      <c r="AG47" t="s">
+        <v>60</v>
       </c>
       <c r="AH47" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI47">
         <v>0</v>
@@ -6228,13 +6190,13 @@
         <v>38</v>
       </c>
       <c r="B48">
-        <v>20183269</v>
+        <v>20183362</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E48" t="s">
         <v>81</v>
@@ -6242,49 +6204,66 @@
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="H48" t="s">
-        <v>231</v>
+      <c r="G48" t="s">
+        <v>229</v>
+      </c>
+      <c r="H48" s="2">
+        <v>14</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M48">
         <v>2</v>
       </c>
       <c r="N48" s="2">
-        <v>1037</v>
+        <v>48</v>
       </c>
       <c r="O48">
         <v>1</v>
       </c>
       <c r="P48">
-        <v>606</v>
+        <v>40</v>
       </c>
       <c r="Q48">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="R48">
         <v>1</v>
       </c>
       <c r="S48" s="2">
-        <v>13.47</v>
+        <v>48.2</v>
       </c>
       <c r="T48" s="2">
-        <v>1.16</v>
-      </c>
-      <c r="U48"/>
+        <v>7.54</v>
+      </c>
+      <c r="U48" t="s">
+        <v>231</v>
+      </c>
       <c r="V48">
+        <v>5</v>
+      </c>
+      <c r="W48" t="s">
+        <v>232</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2">
         <v>2</v>
       </c>
-      <c r="W48" t="s">
+      <c r="AB48" t="s">
         <v>233</v>
       </c>
-      <c r="AA48" s="2">
-        <v>0</v>
-      </c>
       <c r="AC48">
         <v>0</v>
       </c>
@@ -6292,10 +6271,10 @@
         <v>0</v>
       </c>
       <c r="AG48" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="AH48" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -6309,10 +6288,10 @@
         <v>20183362</v>
       </c>
       <c r="C49" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D49" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E49" t="s">
         <v>81</v>
@@ -6321,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="H49" s="2">
         <v>14</v>
@@ -6330,46 +6309,46 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M49">
         <v>2</v>
       </c>
       <c r="N49" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O49">
         <v>1</v>
       </c>
       <c r="P49">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R49">
         <v>1</v>
       </c>
       <c r="S49" s="2">
-        <v>48.2</v>
+        <v>47.51</v>
       </c>
       <c r="T49" s="2">
-        <v>7.54</v>
+        <v>7.12</v>
       </c>
       <c r="U49" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W49" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="X49">
         <v>1</v>
       </c>
       <c r="Y49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -6378,7 +6357,7 @@
         <v>2</v>
       </c>
       <c r="AB49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -6386,8 +6365,8 @@
       <c r="AE49">
         <v>0</v>
       </c>
-      <c r="AG49" t="s">
-        <v>241</v>
+      <c r="AG49" s="2">
+        <v>0</v>
       </c>
       <c r="AH49" s="2">
         <v>0</v>
@@ -6401,79 +6380,60 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>20183362</v>
+        <v>20184020</v>
       </c>
       <c r="C50" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D50" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50" t="s">
-        <v>215</v>
-      </c>
-      <c r="H50" s="2">
-        <v>14</v>
+      <c r="H50" t="s">
+        <v>180</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50" s="2">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="O50">
         <v>1</v>
       </c>
       <c r="P50">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="R50">
         <v>1</v>
       </c>
-      <c r="S50" s="2">
-        <v>47.51</v>
-      </c>
-      <c r="T50" s="2">
-        <v>7.12</v>
-      </c>
+      <c r="S50"/>
+      <c r="T50"/>
       <c r="U50" t="s">
         <v>242</v>
       </c>
       <c r="V50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W50" t="s">
         <v>243</v>
       </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
       <c r="AA50" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -6481,11 +6441,11 @@
       <c r="AE50">
         <v>0</v>
       </c>
-      <c r="AG50" s="2">
-        <v>0</v>
+      <c r="AG50" t="s">
+        <v>122</v>
       </c>
       <c r="AH50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50">
         <v>0</v>
@@ -6496,57 +6456,61 @@
         <v>38</v>
       </c>
       <c r="B51">
-        <v>20184020</v>
+        <v>20184123</v>
       </c>
       <c r="C51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D51" t="s">
         <v>245</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>180</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
         <v>246</v>
       </c>
-      <c r="E51" t="s">
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51" s="2">
+        <v>1288</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>677</v>
+      </c>
+      <c r="Q51">
+        <v>609</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="T51" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="U51" t="s">
         <v>247</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>188</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
-        <v>248</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51" s="2">
-        <v>115</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51">
-        <v>59</v>
-      </c>
-      <c r="Q51">
-        <v>56</v>
-      </c>
-      <c r="R51">
-        <v>1</v>
-      </c>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51" t="s">
-        <v>249</v>
       </c>
       <c r="V51">
         <v>2</v>
       </c>
       <c r="W51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA51" s="2">
         <v>0</v>
@@ -6558,10 +6522,10 @@
         <v>0</v>
       </c>
       <c r="AG51" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="AH51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI51">
         <v>0</v>
@@ -6572,61 +6536,61 @@
         <v>38</v>
       </c>
       <c r="B52">
-        <v>20184123</v>
+        <v>20184150</v>
       </c>
       <c r="C52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" t="s">
+        <v>240</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>180</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
         <v>251</v>
-      </c>
-      <c r="D52" t="s">
-        <v>252</v>
-      </c>
-      <c r="E52" t="s">
-        <v>247</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>188</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
-        <v>253</v>
       </c>
       <c r="M52">
         <v>2</v>
       </c>
       <c r="N52" s="2">
-        <v>1288</v>
+        <v>746</v>
       </c>
       <c r="O52">
         <v>1</v>
       </c>
       <c r="P52">
-        <v>677</v>
+        <v>412</v>
       </c>
       <c r="Q52">
-        <v>609</v>
+        <v>334</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52" s="2">
-        <v>14.99</v>
+        <v>15.02</v>
       </c>
       <c r="T52" s="2">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="U52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V52">
         <v>2</v>
       </c>
       <c r="W52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AA52" s="2">
         <v>0</v>
@@ -6638,13 +6602,13 @@
         <v>0</v>
       </c>
       <c r="AG52" t="s">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="AH52" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -6652,76 +6616,77 @@
         <v>38</v>
       </c>
       <c r="B53">
-        <v>20184150</v>
+        <v>20184156</v>
       </c>
       <c r="C53" t="s">
+        <v>255</v>
+      </c>
+      <c r="D53" t="s">
         <v>256</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>240</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>14</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
         <v>257</v>
-      </c>
-      <c r="E53" t="s">
-        <v>247</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>188</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53" t="s">
-        <v>258</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
       <c r="N53" s="2">
-        <v>746</v>
+        <v>376</v>
       </c>
       <c r="O53">
         <v>1</v>
       </c>
       <c r="P53">
-        <v>412</v>
+        <v>0.48</v>
       </c>
       <c r="Q53">
-        <v>334</v>
+        <v>0.52</v>
       </c>
       <c r="R53">
         <v>1</v>
       </c>
       <c r="S53" s="2">
-        <v>15.02</v>
+        <v>13.13</v>
       </c>
       <c r="T53" s="2">
-        <v>1.63</v>
-      </c>
-      <c r="U53" t="s">
-        <v>259</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="U53"/>
       <c r="V53">
         <v>2</v>
       </c>
       <c r="W53" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="s">
         <v>260</v>
       </c>
-      <c r="AA53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>261</v>
-      </c>
       <c r="AH53" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI53">
         <v>1</v>
@@ -6732,62 +6697,70 @@
         <v>38</v>
       </c>
       <c r="B54">
-        <v>20184156</v>
+        <v>20212015</v>
       </c>
       <c r="C54" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" t="s">
         <v>262</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
         <v>263</v>
       </c>
-      <c r="E54" t="s">
-        <v>247</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2">
-        <v>14</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" s="2">
+        <v>97</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>18</v>
+      </c>
+      <c r="Q54">
+        <v>79</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54" s="2">
+        <v>34.08</v>
+      </c>
+      <c r="T54" s="2">
+        <v>6.39</v>
+      </c>
+      <c r="U54" t="s">
         <v>264</v>
       </c>
-      <c r="M54">
-        <v>2</v>
-      </c>
-      <c r="N54" s="2">
-        <v>376</v>
-      </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54">
-        <v>0.48</v>
-      </c>
-      <c r="Q54">
-        <v>0.52</v>
-      </c>
-      <c r="R54">
-        <v>1</v>
-      </c>
-      <c r="S54" s="2">
-        <v>13.13</v>
-      </c>
-      <c r="T54" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U54"/>
       <c r="V54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W54" t="s">
         <v>265</v>
       </c>
-      <c r="AA54" t="s">
-        <v>170</v>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>1</v>
       </c>
       <c r="AB54" t="s">
         <v>266</v>
@@ -6798,14 +6771,14 @@
       <c r="AE54">
         <v>0</v>
       </c>
-      <c r="AG54" t="s">
-        <v>267</v>
+      <c r="AG54" s="2">
+        <v>0</v>
       </c>
       <c r="AH54" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:35">
@@ -6813,13 +6786,13 @@
         <v>38</v>
       </c>
       <c r="B55">
-        <v>20212015</v>
+        <v>20212174</v>
       </c>
       <c r="C55" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55" t="s">
         <v>268</v>
-      </c>
-      <c r="D55" t="s">
-        <v>269</v>
       </c>
       <c r="E55" t="s">
         <v>63</v>
@@ -6828,58 +6801,50 @@
         <v>1</v>
       </c>
       <c r="H55" s="2">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L55" t="s">
+        <v>269</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2">
+        <v>17</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>7</v>
+      </c>
+      <c r="Q55">
+        <v>10</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="T55"/>
+      <c r="U55" t="s">
         <v>270</v>
       </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55" s="2">
-        <v>97</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55">
-        <v>18</v>
-      </c>
-      <c r="Q55">
-        <v>79</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="S55" s="2">
-        <v>34.08</v>
-      </c>
-      <c r="T55" s="2">
-        <v>6.39</v>
-      </c>
-      <c r="U55" t="s">
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55" t="s">
         <v>271</v>
       </c>
-      <c r="V55">
-        <v>4</v>
-      </c>
-      <c r="W55" t="s">
-        <v>272</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>1</v>
-      </c>
       <c r="AA55" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -6902,62 +6867,68 @@
         <v>38</v>
       </c>
       <c r="B56">
-        <v>20212174</v>
+        <v>20213025</v>
       </c>
       <c r="C56" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" t="s">
+        <v>273</v>
+      </c>
+      <c r="E56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
         <v>274</v>
       </c>
-      <c r="D56" t="s">
+      <c r="H56" s="2">
+        <v>14</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
         <v>275</v>
       </c>
-      <c r="E56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>3</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56" s="2">
+        <v>610</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>610</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56" s="2">
+        <v>35.24</v>
+      </c>
+      <c r="T56" s="2">
+        <v>4.02</v>
+      </c>
+      <c r="U56"/>
+      <c r="V56">
+        <v>4</v>
+      </c>
+      <c r="W56" t="s">
         <v>276</v>
       </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56" s="2">
-        <v>17</v>
-      </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>7</v>
-      </c>
-      <c r="Q56">
-        <v>10</v>
-      </c>
-      <c r="R56">
-        <v>1</v>
-      </c>
-      <c r="S56" s="2">
-        <v>19.5</v>
-      </c>
-      <c r="T56"/>
-      <c r="U56" t="s">
-        <v>277</v>
-      </c>
-      <c r="V56">
-        <v>1</v>
-      </c>
-      <c r="W56" t="s">
-        <v>278</v>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
       </c>
       <c r="AA56" s="2">
         <v>0</v>
@@ -6986,10 +6957,10 @@
         <v>20213025</v>
       </c>
       <c r="C57" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D57" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E57" t="s">
         <v>81</v>
@@ -6998,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H57" s="2">
         <v>14</v>
@@ -7007,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M57">
         <v>2</v>
@@ -7019,26 +6990,26 @@
         <v>1</v>
       </c>
       <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
         <v>610</v>
       </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
       <c r="R57">
         <v>1</v>
       </c>
       <c r="S57" s="2">
-        <v>35.24</v>
+        <v>33.02</v>
       </c>
       <c r="T57" s="2">
-        <v>4.02</v>
+        <v>3.27</v>
       </c>
       <c r="U57"/>
       <c r="V57">
         <v>4</v>
       </c>
       <c r="W57" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -7070,13 +7041,13 @@
         <v>38</v>
       </c>
       <c r="B58">
-        <v>20213025</v>
+        <v>20213090</v>
       </c>
       <c r="C58" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" t="s">
         <v>279</v>
-      </c>
-      <c r="D58" t="s">
-        <v>280</v>
       </c>
       <c r="E58" t="s">
         <v>81</v>
@@ -7084,9 +7055,6 @@
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58" t="s">
-        <v>284</v>
-      </c>
       <c r="H58" s="2">
         <v>14</v>
       </c>
@@ -7094,44 +7062,38 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58" s="2">
-        <v>610</v>
+        <v>120</v>
       </c>
       <c r="O58">
         <v>1</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q58">
-        <v>610</v>
+        <v>52</v>
       </c>
       <c r="R58">
         <v>1</v>
       </c>
       <c r="S58" s="2">
-        <v>33.02</v>
+        <v>13.65</v>
       </c>
       <c r="T58" s="2">
-        <v>3.27</v>
+        <v>0.43</v>
       </c>
       <c r="U58"/>
       <c r="V58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W58" t="s">
-        <v>283</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="AA58" s="2">
         <v>0</v>
@@ -7149,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="AI58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:35">
@@ -7157,13 +7119,13 @@
         <v>38</v>
       </c>
       <c r="B59">
-        <v>20213090</v>
+        <v>20213177</v>
       </c>
       <c r="C59" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E59" t="s">
         <v>81</v>
@@ -7178,38 +7140,40 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59" s="2">
-        <v>120</v>
+        <v>797</v>
       </c>
       <c r="O59">
         <v>1</v>
       </c>
       <c r="P59">
-        <v>68</v>
+        <v>401</v>
       </c>
       <c r="Q59">
-        <v>52</v>
+        <v>396</v>
       </c>
       <c r="R59">
         <v>1</v>
       </c>
       <c r="S59" s="2">
-        <v>13.65</v>
+        <v>11.67</v>
       </c>
       <c r="T59" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="U59"/>
+        <v>1.94</v>
+      </c>
+      <c r="U59" t="s">
+        <v>285</v>
+      </c>
       <c r="V59">
         <v>2</v>
       </c>
       <c r="W59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AA59" s="2">
         <v>0</v>
@@ -7220,8 +7184,8 @@
       <c r="AE59">
         <v>0</v>
       </c>
-      <c r="AG59" s="2">
-        <v>0</v>
+      <c r="AG59" t="s">
+        <v>94</v>
       </c>
       <c r="AH59" s="2">
         <v>0</v>
@@ -7235,13 +7199,13 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>20213177</v>
+        <v>20213303</v>
       </c>
       <c r="C60" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D60" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
         <v>81</v>
@@ -7249,50 +7213,58 @@
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="H60" s="2">
-        <v>14</v>
+      <c r="H60" t="s">
+        <v>224</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60" t="s">
+        <v>289</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" s="2">
+        <v>85</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>63</v>
+      </c>
+      <c r="Q60">
+        <v>22</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60" t="s">
+        <v>290</v>
+      </c>
+      <c r="V60">
+        <v>5</v>
+      </c>
+      <c r="W60" t="s">
         <v>291</v>
       </c>
-      <c r="M60">
+      <c r="X60">
+        <v>1</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="2">
         <v>2</v>
       </c>
-      <c r="N60" s="2">
-        <v>797</v>
-      </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>401</v>
-      </c>
-      <c r="Q60">
-        <v>396</v>
-      </c>
-      <c r="R60">
-        <v>1</v>
-      </c>
-      <c r="S60" s="2">
-        <v>11.67</v>
-      </c>
-      <c r="T60" s="2">
-        <v>1.94</v>
-      </c>
-      <c r="U60" t="s">
+      <c r="AB60" t="s">
         <v>292</v>
-      </c>
-      <c r="V60">
-        <v>2</v>
-      </c>
-      <c r="W60" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA60" s="2">
-        <v>0</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -7304,10 +7276,10 @@
         <v>94</v>
       </c>
       <c r="AH60" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -7315,73 +7287,71 @@
         <v>38</v>
       </c>
       <c r="B61">
-        <v>20213303</v>
+        <v>20214071</v>
       </c>
       <c r="C61" t="s">
+        <v>293</v>
+      </c>
+      <c r="D61" t="s">
         <v>294</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>224</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
         <v>295</v>
       </c>
-      <c r="E61" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>231</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61" s="2">
+        <v>864</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>404</v>
+      </c>
+      <c r="Q61">
+        <v>460</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61" s="2">
+        <v>24.37</v>
+      </c>
+      <c r="T61" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="U61" t="s">
         <v>296</v>
       </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61" s="2">
-        <v>85</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <v>63</v>
-      </c>
-      <c r="Q61">
-        <v>22</v>
-      </c>
-      <c r="R61">
-        <v>1</v>
-      </c>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61" t="s">
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61" t="s">
         <v>297</v>
       </c>
-      <c r="V61">
+      <c r="AA61" s="2">
         <v>5</v>
       </c>
-      <c r="W61" t="s">
+      <c r="AB61" t="s">
         <v>298</v>
       </c>
-      <c r="X61">
-        <v>1</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>299</v>
-      </c>
       <c r="AC61">
         <v>0</v>
       </c>
@@ -7389,10 +7359,10 @@
         <v>0</v>
       </c>
       <c r="AG61" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="AH61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI61">
         <v>0</v>
@@ -7403,70 +7373,49 @@
         <v>38</v>
       </c>
       <c r="B62">
-        <v>20214071</v>
+        <v>20183052</v>
       </c>
       <c r="C62" t="s">
+        <v>299</v>
+      </c>
+      <c r="D62" t="s">
         <v>300</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1234</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62" t="s">
         <v>301</v>
       </c>
-      <c r="E62" t="s">
-        <v>247</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>231</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1708</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62" t="s">
         <v>302</v>
       </c>
-      <c r="M62">
-        <v>2</v>
-      </c>
-      <c r="N62" s="2">
-        <v>864</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62">
-        <v>404</v>
-      </c>
-      <c r="Q62">
-        <v>460</v>
-      </c>
-      <c r="R62">
-        <v>1</v>
-      </c>
-      <c r="S62" s="2">
-        <v>24.37</v>
-      </c>
-      <c r="T62" s="2">
-        <v>2.02</v>
-      </c>
-      <c r="U62" t="s">
-        <v>303</v>
-      </c>
-      <c r="V62">
-        <v>1</v>
-      </c>
-      <c r="W62" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA62" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>305</v>
+      <c r="AA62">
+        <v>0</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -7475,77 +7424,12 @@
         <v>0</v>
       </c>
       <c r="AG62" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH62" s="2">
+        <v>60</v>
+      </c>
+      <c r="AH62">
         <v>1</v>
       </c>
       <c r="AI62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35">
-      <c r="A63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63">
-        <v>20183052</v>
-      </c>
-      <c r="C63" t="s">
-        <v>306</v>
-      </c>
-      <c r="D63" t="s">
-        <v>307</v>
-      </c>
-      <c r="E63" t="s">
-        <v>81</v>
-      </c>
-      <c r="H63" s="1">
-        <v>1234</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>3</v>
-      </c>
-      <c r="L63" t="s">
-        <v>308</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>1708</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>1</v>
-      </c>
-      <c r="W63" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH63">
-        <v>1</v>
-      </c>
-      <c r="AI63">
         <v>1</v>
       </c>
     </row>
